--- a/data/df2_20200719_edited.xlsx
+++ b/data/df2_20200719_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinPython37F\notebooks\faq_chatbot_science_3rd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F76A0E-569F-4CA7-86EA-C5D7AB80D1E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4339D9CB-8309-45DA-A4FB-E615D51321FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5380" uniqueCount="5143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5392" uniqueCount="5154">
   <si>
     <t>질문</t>
   </si>
@@ -15655,6 +15655,45 @@
   </si>
   <si>
     <t>온대 저기압을 보시면 온난전선은 앞쪽에 구름이 생기고, 한랭전선은 뒤쪽에 구름이 생기니 그 중간에는 구름이 없죠.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개색히야</t>
+  </si>
+  <si>
+    <t>대기는 기권중 어느 층에있나요?</t>
+  </si>
+  <si>
+    <t>대기는 기권 전체에 있죠, 대부분의 공기가 대류권에 몰려있을뿐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>철이 녹스는건 왜 물리변화 이죠</t>
+  </si>
+  <si>
+    <t>철이 녹스는건 물리 변화 인가요 ?</t>
+  </si>
+  <si>
+    <t>산소와 반응하기 전에는 그냥 철이었는데 반응 후에는 산화철이 되어서 화학변화죠. 물리변화 아녜요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>철이 녹스는건 왜 화학변화 이죠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산소와 반응하기 전에는 그냥 철이었는데 반응 후에는 산화철이 되어서 화학변화죠.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주말을 갈아서 만들었는데 욕을 하다니 ㅠㅠ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온실효과가 일어나면 복사평형이 깨지지 않나요?</t>
+  </si>
+  <si>
+    <t>온실효과를 깊게 공부하면 그 생각이 들죠? 관점을 지표면으로 옮겨봐요. 지표면 입장에서는 태양복사에너지도 흡수하고 대기가 방출하는 복사에너지까지 흡수해서 복사평형을 이루기 위해 태양복사에너지+대기가방출해서 흡수한 복사에너지를  방출해야 복사평형이 이루어져요. 그래서 지표면 입장에서는 복사에너지를 더 많이 흡수하고 더 많이 방출하니까 더 높은 온도에서 복사평형이 일어나요. 그러나 지구 전체와 우주 입장에서 보면 대기와 지표면끼리 에너지를 주고 받는 건 그들끼리의 상호작용이라 바깥에서 보면 영향이 없죠. 그래서 복사평형이 깨지지 않아요.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -16029,10 +16068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2691"/>
+  <dimension ref="A1:C2697"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2680" workbookViewId="0">
-      <selection activeCell="C2691" sqref="C2691"/>
+      <selection activeCell="B2696" sqref="B2696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -45633,6 +45672,72 @@
         <v>5142</v>
       </c>
     </row>
+    <row r="2692" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2692" s="1">
+        <v>2691</v>
+      </c>
+      <c r="B2692" t="s">
+        <v>5143</v>
+      </c>
+      <c r="C2692" t="s">
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2693" s="1">
+        <v>2692</v>
+      </c>
+      <c r="B2693" t="s">
+        <v>5144</v>
+      </c>
+      <c r="C2693" t="s">
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2694" s="1">
+        <v>2693</v>
+      </c>
+      <c r="B2694" t="s">
+        <v>5147</v>
+      </c>
+      <c r="C2694" t="s">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2695" s="1">
+        <v>2694</v>
+      </c>
+      <c r="B2695" t="s">
+        <v>5146</v>
+      </c>
+      <c r="C2695" t="s">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2696" s="1">
+        <v>2695</v>
+      </c>
+      <c r="B2696" t="s">
+        <v>5149</v>
+      </c>
+      <c r="C2696" t="s">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2697" s="1">
+        <v>2696</v>
+      </c>
+      <c r="B2697" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C2697" t="s">
+        <v>5153</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
